--- a/IemsTestcase/Testdata/test_project_data.xlsx
+++ b/IemsTestcase/Testdata/test_project_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -24,6 +24,21 @@
     <t>project_name</t>
   </si>
   <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>directMobile</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>businessMobile</t>
+  </si>
+  <si>
     <t>202104200000000001</t>
   </si>
   <si>
@@ -40,6 +55,18 @@
   </si>
   <si>
     <t>和达高科</t>
+  </si>
+  <si>
+    <t>新增项目</t>
+  </si>
+  <si>
+    <t>建友科创园</t>
+  </si>
+  <si>
+    <t>工程负责人</t>
+  </si>
+  <si>
+    <t>物业负责人</t>
   </si>
 </sst>
 </file>
@@ -1010,48 +1037,86 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="23.625" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="12.625"/>
+    <col min="7" max="7" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>15000000000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>15000000000</v>
       </c>
     </row>
   </sheetData>
